--- a/public/download/product_bulk_demo.xlsx
+++ b/public/download/product_bulk_demo.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp80\htdocs\ecommerce\public\download\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D9DA1D-FA4F-434A-8F79-A302B9B792FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>name</t>
   </si>
@@ -39,9 +45,6 @@
     <t>unit_price</t>
   </si>
   <si>
-    <t>purchase_price</t>
-  </si>
-  <si>
     <t>unit</t>
   </si>
   <si>
@@ -97,13 +100,19 @@
   </si>
   <si>
     <t>est_shipping_days</t>
+  </si>
+  <si>
+    <t>multi_categories</t>
+  </si>
+  <si>
+    <t>1,2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,29 +434,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="3" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" customWidth="1"/>
     <col min="11" max="13" width="23.7109375" customWidth="1"/>
     <col min="14" max="14" width="15.85546875" customWidth="1"/>
@@ -456,92 +464,92 @@
     <col min="17" max="17" width="126.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2">
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2">
         <v>55</v>
       </c>
-      <c r="I2">
-        <v>59</v>
-      </c>
       <c r="J2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L2">
         <v>10</v>
@@ -550,19 +558,19 @@
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1"/>
-    <hyperlink ref="R2" r:id="rId2"/>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="R2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
